--- a/day01/day01.xlsx
+++ b/day01/day01.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graham Knapp\PycharmProjects\aoc_2021\day01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C38307D-61DF-4866-9492-F27AD0B23BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976BB12D-777E-4D03-9803-6BE09BD17B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27000" windowHeight="14235" xr2:uid="{E45535E4-2050-4255-ADFC-59A3125EA3E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E45535E4-2050-4255-ADFC-59A3125EA3E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Day01" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart" sheetId="3" r:id="rId1"/>
+    <sheet name="Day01" sheetId="1" r:id="rId2"/>
+    <sheet name="test" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,6 +200,6931 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Day01'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Day01'!$A$2:$A$2001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2000"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1237</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1277</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1324</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1574</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1611</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1644</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1644</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1683</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1687</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1694</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1706</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1696</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1691</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1727</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1759</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1759</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>2238</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2244</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>2238</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>2208</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>2222</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>2229</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>2244</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2238</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>2269</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>2298</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>2306</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2326</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>2338</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>2354</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2355</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>2373</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>2396</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>2394</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>2412</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>2423</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>2426</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>2429</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>2459</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>2454</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>2468</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>2482</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>2487</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>2509</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>2507</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>2487</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>2533</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>2534</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>2535</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>2594</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>2602</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>2608</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>2649</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>2713</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>2726</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>2731</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>2723</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>2724</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>2759</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>2751</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>2757</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>2759</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>2805</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>2822</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>2822</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>2836</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>2837</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>2886</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>2888</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>2908</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>2909</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>2911</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>2924</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>2925</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>2929</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>2946</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>2947</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>2949</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>2954</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>2944</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>2947</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>2954</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>2956</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>2976</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>2968</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>2967</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>2975</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>2987</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>2997</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>2998</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>2993</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>2997</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>2999</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>3026</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>3046</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>3019</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>3023</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>3023</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>3025</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>3037</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>3038</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>3063</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>3082</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>3083</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>3098</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>3106</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>3110</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>3116</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>3137</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>3143</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>3145</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>3159</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>3162</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>3173</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>3173</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>3174</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>3182</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>3183</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>3185</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>3175</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>3178</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>3179</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>3197</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>3206</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>3254</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>3289</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>3267</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>3290</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>3308</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>3307</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>3308</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>3316</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>3311</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>3357</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>3358</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>3389</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>3405</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>3407</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>3372</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>3374</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>3357</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>3364</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>3367</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>3386</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>3387</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>3388</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>3389</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>3407</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>3409</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>3413</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>3441</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>3441</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>3442</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>3446</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>3448</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>3454</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>3453</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>3457</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>3459</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>3482</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>3497</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>3490</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>3497</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>3495</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>3495</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>3498</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>3515</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>3544</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>3562</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>3557</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>3546</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>3553</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>3557</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>3558</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>3555</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>3562</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>3571</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>3573</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>3575</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>3592</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>3598</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>3648</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>3653</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>3654</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>3657</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>3657</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>3669</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>3670</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>3671</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>3667</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>3669</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>3674</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>3676</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>3683</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>3687</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>3688</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>3699</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>3719</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>3729</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>3734</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>3737</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>3757</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>3767</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>3773</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>3774</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>3778</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>3780</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>3779</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>3782</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>3798</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>3802</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>3834</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>3837</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>3838</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>3839</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>3837</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>3846</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>3851</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>3868</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>3865</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>3895</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>3886</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>3887</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>3886</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>3903</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>3905</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>3906</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>3909</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>3911</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>3922</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>3927</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>3943</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>3953</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>3959</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>3954</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>3933</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>3932</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>3939</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>3941</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>3942</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>3941</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>3951</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>3971</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>3947</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>3953</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>3996</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>4017</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>4032</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>4036</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>4067</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>4068</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>4073</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>4097</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>4093</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>4115</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>4118</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>4119</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>4144</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>4148</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>4149</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>4161</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>4173</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>4177</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>4182</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>4185</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>4196</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>4196</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>4198</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>4214</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>4217</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>4195</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>4206</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>4192</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>4193</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>4208</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>4204</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>4211</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>4206</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>4182</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>4193</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>4195</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>4196</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>4212</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>4213</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>4216</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>4222</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>4232</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>4251</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>4255</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>4256</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>4271</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>4279</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>4292</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>4295</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>4302</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>4285</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>4288</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>4292</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>4296</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>4299</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>4282</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>4285</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>4318</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>4331</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>4340</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>4329</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>4347</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>4379</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>4388</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>4375</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>4384</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>4415</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>4416</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>4418</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>4416</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>4428</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>4430</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>4431</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>4420</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>4436</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>4439</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>4446</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>4458</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>4459</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>4472</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>4468</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>4493</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>4495</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>4468</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>4469</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>4474</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>4475</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>4505</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>4516</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>4522</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>4518</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>4519</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>4532</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>4535</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>4535</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>4538</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>4544</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>4543</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>4546</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>4543</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>4545</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>4548</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>4557</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>4559</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>4555</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>4569</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>4576</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>4579</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>4597</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>4596</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>4603</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>4597</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>4596</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>4619</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>4602</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>4606</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>4612</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>4625</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>4626</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>4651</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>4647</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>4649</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>4674</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>4686</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>4687</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>4695</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>4723</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>4726</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>4739</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>4752</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>4754</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>4765</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>4781</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>4809</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>4797</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>4799</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>4797</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>4796</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>4799</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>4802</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>4804</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>4807</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>4808</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>4809</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>4810</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>4811</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>4820</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>4828</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>4829</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>4830</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>4825</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>4829</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>4830</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>4844</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>4848</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>4849</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>4858</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>4877</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>4878</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>4883</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>4869</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>4871</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>4872</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>4876</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>4879</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>4880</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>4878</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>4880</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>4899</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>4921</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>4922</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>4919</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>4915</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>4916</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>4917</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>4938</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>4939</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>4940</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>4938</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>4941</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>4943</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>4944</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>4947</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>4967</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>4981</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>4982</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>4983</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>4993</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>4994</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>4995</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>5007</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>5008</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>5007</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>5017</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>5048</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>5084</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>5083</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>5089</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>5097</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>5101</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>5061</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>5060</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>5078</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>5079</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>5095</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>5096</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>5102</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>5129</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>5126</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>5127</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>5125</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>5127</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>5128</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>5123</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>5129</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>5132</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>5156</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>5157</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>5182</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>5198</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>5201</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>5208</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>5211</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>5212</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>5215</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>5217</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>5205</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>5207</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>5212</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>5218</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>5206</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>5207</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>5214</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>5220</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>5230</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>5236</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>5241</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>5245</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>5246</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>5232</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>5230</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>5225</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>5232</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>5226</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>5221</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>5224</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>5234</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>5263</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>5268</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>5303</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>5310</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>5311</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>5332</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>5337</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>5338</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>5339</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>5324</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>5346</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>5323</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>5324</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>5325</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>5330</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>5331</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>5338</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>5361</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>5371</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>5373</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>5362</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>5375</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>5387</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>5393</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>5387</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>5396</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>5417</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>5418</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>5421</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>5405</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>5412</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>5414</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>5413</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>5444</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>5445</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>5446</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>5447</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>5453</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>5463</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>5473</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>5478</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>5480</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>5479</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>5489</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>5494</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>5506</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>5510</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>5512</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>5519</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>5518</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>5523</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>5524</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>5529</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>5533</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>5521</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>5521</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>5530</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>5535</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>5551</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="1281">
+                  <c:v>5551</c:v>
+                </c:pt>
+                <c:pt idx="1282">
+                  <c:v>5552</c:v>
+                </c:pt>
+                <c:pt idx="1283">
+                  <c:v>5549</c:v>
+                </c:pt>
+                <c:pt idx="1284">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="1285">
+                  <c:v>5551</c:v>
+                </c:pt>
+                <c:pt idx="1286">
+                  <c:v>5547</c:v>
+                </c:pt>
+                <c:pt idx="1287">
+                  <c:v>5589</c:v>
+                </c:pt>
+                <c:pt idx="1288">
+                  <c:v>5603</c:v>
+                </c:pt>
+                <c:pt idx="1289">
+                  <c:v>5612</c:v>
+                </c:pt>
+                <c:pt idx="1290">
+                  <c:v>5614</c:v>
+                </c:pt>
+                <c:pt idx="1291">
+                  <c:v>5623</c:v>
+                </c:pt>
+                <c:pt idx="1292">
+                  <c:v>5622</c:v>
+                </c:pt>
+                <c:pt idx="1293">
+                  <c:v>5624</c:v>
+                </c:pt>
+                <c:pt idx="1294">
+                  <c:v>5617</c:v>
+                </c:pt>
+                <c:pt idx="1295">
+                  <c:v>5639</c:v>
+                </c:pt>
+                <c:pt idx="1296">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="1297">
+                  <c:v>5627</c:v>
+                </c:pt>
+                <c:pt idx="1298">
+                  <c:v>5630</c:v>
+                </c:pt>
+                <c:pt idx="1299">
+                  <c:v>5634</c:v>
+                </c:pt>
+                <c:pt idx="1300">
+                  <c:v>5641</c:v>
+                </c:pt>
+                <c:pt idx="1301">
+                  <c:v>5646</c:v>
+                </c:pt>
+                <c:pt idx="1302">
+                  <c:v>5648</c:v>
+                </c:pt>
+                <c:pt idx="1303">
+                  <c:v>5655</c:v>
+                </c:pt>
+                <c:pt idx="1304">
+                  <c:v>5679</c:v>
+                </c:pt>
+                <c:pt idx="1305">
+                  <c:v>5665</c:v>
+                </c:pt>
+                <c:pt idx="1306">
+                  <c:v>5666</c:v>
+                </c:pt>
+                <c:pt idx="1307">
+                  <c:v>5669</c:v>
+                </c:pt>
+                <c:pt idx="1308">
+                  <c:v>5687</c:v>
+                </c:pt>
+                <c:pt idx="1309">
+                  <c:v>5688</c:v>
+                </c:pt>
+                <c:pt idx="1310">
+                  <c:v>5692</c:v>
+                </c:pt>
+                <c:pt idx="1311">
+                  <c:v>5690</c:v>
+                </c:pt>
+                <c:pt idx="1312">
+                  <c:v>5688</c:v>
+                </c:pt>
+                <c:pt idx="1313">
+                  <c:v>5691</c:v>
+                </c:pt>
+                <c:pt idx="1314">
+                  <c:v>5695</c:v>
+                </c:pt>
+                <c:pt idx="1315">
+                  <c:v>5696</c:v>
+                </c:pt>
+                <c:pt idx="1316">
+                  <c:v>5697</c:v>
+                </c:pt>
+                <c:pt idx="1317">
+                  <c:v>5699</c:v>
+                </c:pt>
+                <c:pt idx="1318">
+                  <c:v>5698</c:v>
+                </c:pt>
+                <c:pt idx="1319">
+                  <c:v>5715</c:v>
+                </c:pt>
+                <c:pt idx="1320">
+                  <c:v>5716</c:v>
+                </c:pt>
+                <c:pt idx="1321">
+                  <c:v>5717</c:v>
+                </c:pt>
+                <c:pt idx="1322">
+                  <c:v>5744</c:v>
+                </c:pt>
+                <c:pt idx="1323">
+                  <c:v>5741</c:v>
+                </c:pt>
+                <c:pt idx="1324">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="1325">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="1326">
+                  <c:v>5712</c:v>
+                </c:pt>
+                <c:pt idx="1327">
+                  <c:v>5716</c:v>
+                </c:pt>
+                <c:pt idx="1328">
+                  <c:v>5717</c:v>
+                </c:pt>
+                <c:pt idx="1329">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="1330">
+                  <c:v>5746</c:v>
+                </c:pt>
+                <c:pt idx="1331">
+                  <c:v>5749</c:v>
+                </c:pt>
+                <c:pt idx="1332">
+                  <c:v>5751</c:v>
+                </c:pt>
+                <c:pt idx="1333">
+                  <c:v>5752</c:v>
+                </c:pt>
+                <c:pt idx="1334">
+                  <c:v>5761</c:v>
+                </c:pt>
+                <c:pt idx="1335">
+                  <c:v>5767</c:v>
+                </c:pt>
+                <c:pt idx="1336">
+                  <c:v>5769</c:v>
+                </c:pt>
+                <c:pt idx="1337">
+                  <c:v>5784</c:v>
+                </c:pt>
+                <c:pt idx="1338">
+                  <c:v>5785</c:v>
+                </c:pt>
+                <c:pt idx="1339">
+                  <c:v>5786</c:v>
+                </c:pt>
+                <c:pt idx="1340">
+                  <c:v>5784</c:v>
+                </c:pt>
+                <c:pt idx="1341">
+                  <c:v>5786</c:v>
+                </c:pt>
+                <c:pt idx="1342">
+                  <c:v>5787</c:v>
+                </c:pt>
+                <c:pt idx="1343">
+                  <c:v>5790</c:v>
+                </c:pt>
+                <c:pt idx="1344">
+                  <c:v>5799</c:v>
+                </c:pt>
+                <c:pt idx="1345">
+                  <c:v>5807</c:v>
+                </c:pt>
+                <c:pt idx="1346">
+                  <c:v>5808</c:v>
+                </c:pt>
+                <c:pt idx="1347">
+                  <c:v>5826</c:v>
+                </c:pt>
+                <c:pt idx="1348">
+                  <c:v>5828</c:v>
+                </c:pt>
+                <c:pt idx="1349">
+                  <c:v>5826</c:v>
+                </c:pt>
+                <c:pt idx="1350">
+                  <c:v>5837</c:v>
+                </c:pt>
+                <c:pt idx="1351">
+                  <c:v>5856</c:v>
+                </c:pt>
+                <c:pt idx="1352">
+                  <c:v>5876</c:v>
+                </c:pt>
+                <c:pt idx="1353">
+                  <c:v>5877</c:v>
+                </c:pt>
+                <c:pt idx="1354">
+                  <c:v>5879</c:v>
+                </c:pt>
+                <c:pt idx="1355">
+                  <c:v>5887</c:v>
+                </c:pt>
+                <c:pt idx="1356">
+                  <c:v>5890</c:v>
+                </c:pt>
+                <c:pt idx="1357">
+                  <c:v>5892</c:v>
+                </c:pt>
+                <c:pt idx="1358">
+                  <c:v>5894</c:v>
+                </c:pt>
+                <c:pt idx="1359">
+                  <c:v>5911</c:v>
+                </c:pt>
+                <c:pt idx="1360">
+                  <c:v>5922</c:v>
+                </c:pt>
+                <c:pt idx="1361">
+                  <c:v>5935</c:v>
+                </c:pt>
+                <c:pt idx="1362">
+                  <c:v>5936</c:v>
+                </c:pt>
+                <c:pt idx="1363">
+                  <c:v>5942</c:v>
+                </c:pt>
+                <c:pt idx="1364">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="1365">
+                  <c:v>5966</c:v>
+                </c:pt>
+                <c:pt idx="1366">
+                  <c:v>5985</c:v>
+                </c:pt>
+                <c:pt idx="1367">
+                  <c:v>5986</c:v>
+                </c:pt>
+                <c:pt idx="1368">
+                  <c:v>5976</c:v>
+                </c:pt>
+                <c:pt idx="1369">
+                  <c:v>5979</c:v>
+                </c:pt>
+                <c:pt idx="1370">
+                  <c:v>5976</c:v>
+                </c:pt>
+                <c:pt idx="1371">
+                  <c:v>5984</c:v>
+                </c:pt>
+                <c:pt idx="1372">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="1373">
+                  <c:v>5951</c:v>
+                </c:pt>
+                <c:pt idx="1374">
+                  <c:v>5955</c:v>
+                </c:pt>
+                <c:pt idx="1375">
+                  <c:v>5964</c:v>
+                </c:pt>
+                <c:pt idx="1376">
+                  <c:v>5965</c:v>
+                </c:pt>
+                <c:pt idx="1377">
+                  <c:v>5969</c:v>
+                </c:pt>
+                <c:pt idx="1378">
+                  <c:v>5974</c:v>
+                </c:pt>
+                <c:pt idx="1379">
+                  <c:v>5990</c:v>
+                </c:pt>
+                <c:pt idx="1380">
+                  <c:v>6008</c:v>
+                </c:pt>
+                <c:pt idx="1381">
+                  <c:v>6038</c:v>
+                </c:pt>
+                <c:pt idx="1382">
+                  <c:v>6045</c:v>
+                </c:pt>
+                <c:pt idx="1383">
+                  <c:v>6051</c:v>
+                </c:pt>
+                <c:pt idx="1384">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="1385">
+                  <c:v>6066</c:v>
+                </c:pt>
+                <c:pt idx="1386">
+                  <c:v>6070</c:v>
+                </c:pt>
+                <c:pt idx="1387">
+                  <c:v>6105</c:v>
+                </c:pt>
+                <c:pt idx="1388">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="1389">
+                  <c:v>6121</c:v>
+                </c:pt>
+                <c:pt idx="1390">
+                  <c:v>6127</c:v>
+                </c:pt>
+                <c:pt idx="1391">
+                  <c:v>6149</c:v>
+                </c:pt>
+                <c:pt idx="1392">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="1393">
+                  <c:v>6157</c:v>
+                </c:pt>
+                <c:pt idx="1394">
+                  <c:v>6162</c:v>
+                </c:pt>
+                <c:pt idx="1395">
+                  <c:v>6163</c:v>
+                </c:pt>
+                <c:pt idx="1396">
+                  <c:v>6165</c:v>
+                </c:pt>
+                <c:pt idx="1397">
+                  <c:v>6185</c:v>
+                </c:pt>
+                <c:pt idx="1398">
+                  <c:v>6186</c:v>
+                </c:pt>
+                <c:pt idx="1399">
+                  <c:v>6190</c:v>
+                </c:pt>
+                <c:pt idx="1400">
+                  <c:v>6191</c:v>
+                </c:pt>
+                <c:pt idx="1401">
+                  <c:v>6218</c:v>
+                </c:pt>
+                <c:pt idx="1402">
+                  <c:v>6235</c:v>
+                </c:pt>
+                <c:pt idx="1403">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="1404">
+                  <c:v>6231</c:v>
+                </c:pt>
+                <c:pt idx="1405">
+                  <c:v>6239</c:v>
+                </c:pt>
+                <c:pt idx="1406">
+                  <c:v>6229</c:v>
+                </c:pt>
+                <c:pt idx="1407">
+                  <c:v>6237</c:v>
+                </c:pt>
+                <c:pt idx="1408">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="1409">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="1410">
+                  <c:v>6243</c:v>
+                </c:pt>
+                <c:pt idx="1411">
+                  <c:v>6249</c:v>
+                </c:pt>
+                <c:pt idx="1412">
+                  <c:v>6264</c:v>
+                </c:pt>
+                <c:pt idx="1413">
+                  <c:v>6251</c:v>
+                </c:pt>
+                <c:pt idx="1414">
+                  <c:v>6257</c:v>
+                </c:pt>
+                <c:pt idx="1415">
+                  <c:v>6276</c:v>
+                </c:pt>
+                <c:pt idx="1416">
+                  <c:v>6279</c:v>
+                </c:pt>
+                <c:pt idx="1417">
+                  <c:v>6271</c:v>
+                </c:pt>
+                <c:pt idx="1418">
+                  <c:v>6290</c:v>
+                </c:pt>
+                <c:pt idx="1419">
+                  <c:v>6292</c:v>
+                </c:pt>
+                <c:pt idx="1420">
+                  <c:v>6290</c:v>
+                </c:pt>
+                <c:pt idx="1421">
+                  <c:v>6293</c:v>
+                </c:pt>
+                <c:pt idx="1422">
+                  <c:v>6294</c:v>
+                </c:pt>
+                <c:pt idx="1423">
+                  <c:v>6287</c:v>
+                </c:pt>
+                <c:pt idx="1424">
+                  <c:v>6289</c:v>
+                </c:pt>
+                <c:pt idx="1425">
+                  <c:v>6290</c:v>
+                </c:pt>
+                <c:pt idx="1426">
+                  <c:v>6291</c:v>
+                </c:pt>
+                <c:pt idx="1427">
+                  <c:v>6293</c:v>
+                </c:pt>
+                <c:pt idx="1428">
+                  <c:v>6294</c:v>
+                </c:pt>
+                <c:pt idx="1429">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="1430">
+                  <c:v>6295</c:v>
+                </c:pt>
+                <c:pt idx="1431">
+                  <c:v>6296</c:v>
+                </c:pt>
+                <c:pt idx="1432">
+                  <c:v>6303</c:v>
+                </c:pt>
+                <c:pt idx="1433">
+                  <c:v>6332</c:v>
+                </c:pt>
+                <c:pt idx="1434">
+                  <c:v>6334</c:v>
+                </c:pt>
+                <c:pt idx="1435">
+                  <c:v>6333</c:v>
+                </c:pt>
+                <c:pt idx="1436">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="1437">
+                  <c:v>6341</c:v>
+                </c:pt>
+                <c:pt idx="1438">
+                  <c:v>6344</c:v>
+                </c:pt>
+                <c:pt idx="1439">
+                  <c:v>6345</c:v>
+                </c:pt>
+                <c:pt idx="1440">
+                  <c:v>6346</c:v>
+                </c:pt>
+                <c:pt idx="1441">
+                  <c:v>6352</c:v>
+                </c:pt>
+                <c:pt idx="1442">
+                  <c:v>6356</c:v>
+                </c:pt>
+                <c:pt idx="1443">
+                  <c:v>6355</c:v>
+                </c:pt>
+                <c:pt idx="1444">
+                  <c:v>6368</c:v>
+                </c:pt>
+                <c:pt idx="1445">
+                  <c:v>6370</c:v>
+                </c:pt>
+                <c:pt idx="1446">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="1447">
+                  <c:v>6362</c:v>
+                </c:pt>
+                <c:pt idx="1448">
+                  <c:v>6359</c:v>
+                </c:pt>
+                <c:pt idx="1449">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="1450">
+                  <c:v>6362</c:v>
+                </c:pt>
+                <c:pt idx="1451">
+                  <c:v>6368</c:v>
+                </c:pt>
+                <c:pt idx="1452">
+                  <c:v>6364</c:v>
+                </c:pt>
+                <c:pt idx="1453">
+                  <c:v>6373</c:v>
+                </c:pt>
+                <c:pt idx="1454">
+                  <c:v>6374</c:v>
+                </c:pt>
+                <c:pt idx="1455">
+                  <c:v>6383</c:v>
+                </c:pt>
+                <c:pt idx="1456">
+                  <c:v>6384</c:v>
+                </c:pt>
+                <c:pt idx="1457">
+                  <c:v>6385</c:v>
+                </c:pt>
+                <c:pt idx="1458">
+                  <c:v>6384</c:v>
+                </c:pt>
+                <c:pt idx="1459">
+                  <c:v>6389</c:v>
+                </c:pt>
+                <c:pt idx="1460">
+                  <c:v>6388</c:v>
+                </c:pt>
+                <c:pt idx="1461">
+                  <c:v>6389</c:v>
+                </c:pt>
+                <c:pt idx="1462">
+                  <c:v>6404</c:v>
+                </c:pt>
+                <c:pt idx="1463">
+                  <c:v>6410</c:v>
+                </c:pt>
+                <c:pt idx="1464">
+                  <c:v>6415</c:v>
+                </c:pt>
+                <c:pt idx="1465">
+                  <c:v>6407</c:v>
+                </c:pt>
+                <c:pt idx="1466">
+                  <c:v>6406</c:v>
+                </c:pt>
+                <c:pt idx="1467">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="1468">
+                  <c:v>6402</c:v>
+                </c:pt>
+                <c:pt idx="1469">
+                  <c:v>6407</c:v>
+                </c:pt>
+                <c:pt idx="1470">
+                  <c:v>6413</c:v>
+                </c:pt>
+                <c:pt idx="1471">
+                  <c:v>6412</c:v>
+                </c:pt>
+                <c:pt idx="1472">
+                  <c:v>6398</c:v>
+                </c:pt>
+                <c:pt idx="1473">
+                  <c:v>6384</c:v>
+                </c:pt>
+                <c:pt idx="1474">
+                  <c:v>6386</c:v>
+                </c:pt>
+                <c:pt idx="1475">
+                  <c:v>6407</c:v>
+                </c:pt>
+                <c:pt idx="1476">
+                  <c:v>6408</c:v>
+                </c:pt>
+                <c:pt idx="1477">
+                  <c:v>6409</c:v>
+                </c:pt>
+                <c:pt idx="1478">
+                  <c:v>6408</c:v>
+                </c:pt>
+                <c:pt idx="1479">
+                  <c:v>6418</c:v>
+                </c:pt>
+                <c:pt idx="1480">
+                  <c:v>6415</c:v>
+                </c:pt>
+                <c:pt idx="1481">
+                  <c:v>6416</c:v>
+                </c:pt>
+                <c:pt idx="1482">
+                  <c:v>6418</c:v>
+                </c:pt>
+                <c:pt idx="1483">
+                  <c:v>6427</c:v>
+                </c:pt>
+                <c:pt idx="1484">
+                  <c:v>6434</c:v>
+                </c:pt>
+                <c:pt idx="1485">
+                  <c:v>6458</c:v>
+                </c:pt>
+                <c:pt idx="1486">
+                  <c:v>6455</c:v>
+                </c:pt>
+                <c:pt idx="1487">
+                  <c:v>6456</c:v>
+                </c:pt>
+                <c:pt idx="1488">
+                  <c:v>6457</c:v>
+                </c:pt>
+                <c:pt idx="1489">
+                  <c:v>6458</c:v>
+                </c:pt>
+                <c:pt idx="1490">
+                  <c:v>6468</c:v>
+                </c:pt>
+                <c:pt idx="1491">
+                  <c:v>6463</c:v>
+                </c:pt>
+                <c:pt idx="1492">
+                  <c:v>6454</c:v>
+                </c:pt>
+                <c:pt idx="1493">
+                  <c:v>6455</c:v>
+                </c:pt>
+                <c:pt idx="1494">
+                  <c:v>6459</c:v>
+                </c:pt>
+                <c:pt idx="1495">
+                  <c:v>6460</c:v>
+                </c:pt>
+                <c:pt idx="1496">
+                  <c:v>6464</c:v>
+                </c:pt>
+                <c:pt idx="1497">
+                  <c:v>6471</c:v>
+                </c:pt>
+                <c:pt idx="1498">
+                  <c:v>6463</c:v>
+                </c:pt>
+                <c:pt idx="1499">
+                  <c:v>6480</c:v>
+                </c:pt>
+                <c:pt idx="1500">
+                  <c:v>6467</c:v>
+                </c:pt>
+                <c:pt idx="1501">
+                  <c:v>6468</c:v>
+                </c:pt>
+                <c:pt idx="1502">
+                  <c:v>6470</c:v>
+                </c:pt>
+                <c:pt idx="1503">
+                  <c:v>6462</c:v>
+                </c:pt>
+                <c:pt idx="1504">
+                  <c:v>6463</c:v>
+                </c:pt>
+                <c:pt idx="1505">
+                  <c:v>6464</c:v>
+                </c:pt>
+                <c:pt idx="1506">
+                  <c:v>6462</c:v>
+                </c:pt>
+                <c:pt idx="1507">
+                  <c:v>6461</c:v>
+                </c:pt>
+                <c:pt idx="1508">
+                  <c:v>6463</c:v>
+                </c:pt>
+                <c:pt idx="1509">
+                  <c:v>6471</c:v>
+                </c:pt>
+                <c:pt idx="1510">
+                  <c:v>6482</c:v>
+                </c:pt>
+                <c:pt idx="1511">
+                  <c:v>6459</c:v>
+                </c:pt>
+                <c:pt idx="1512">
+                  <c:v>6460</c:v>
+                </c:pt>
+                <c:pt idx="1513">
+                  <c:v>6462</c:v>
+                </c:pt>
+                <c:pt idx="1514">
+                  <c:v>6469</c:v>
+                </c:pt>
+                <c:pt idx="1515">
+                  <c:v>6484</c:v>
+                </c:pt>
+                <c:pt idx="1516">
+                  <c:v>6479</c:v>
+                </c:pt>
+                <c:pt idx="1517">
+                  <c:v>6481</c:v>
+                </c:pt>
+                <c:pt idx="1518">
+                  <c:v>6492</c:v>
+                </c:pt>
+                <c:pt idx="1519">
+                  <c:v>6502</c:v>
+                </c:pt>
+                <c:pt idx="1520">
+                  <c:v>6477</c:v>
+                </c:pt>
+                <c:pt idx="1521">
+                  <c:v>6483</c:v>
+                </c:pt>
+                <c:pt idx="1522">
+                  <c:v>6486</c:v>
+                </c:pt>
+                <c:pt idx="1523">
+                  <c:v>6488</c:v>
+                </c:pt>
+                <c:pt idx="1524">
+                  <c:v>6466</c:v>
+                </c:pt>
+                <c:pt idx="1525">
+                  <c:v>6467</c:v>
+                </c:pt>
+                <c:pt idx="1526">
+                  <c:v>6463</c:v>
+                </c:pt>
+                <c:pt idx="1527">
+                  <c:v>6444</c:v>
+                </c:pt>
+                <c:pt idx="1528">
+                  <c:v>6464</c:v>
+                </c:pt>
+                <c:pt idx="1529">
+                  <c:v>6466</c:v>
+                </c:pt>
+                <c:pt idx="1530">
+                  <c:v>6482</c:v>
+                </c:pt>
+                <c:pt idx="1531">
+                  <c:v>6497</c:v>
+                </c:pt>
+                <c:pt idx="1532">
+                  <c:v>6498</c:v>
+                </c:pt>
+                <c:pt idx="1533">
+                  <c:v>6511</c:v>
+                </c:pt>
+                <c:pt idx="1534">
+                  <c:v>6512</c:v>
+                </c:pt>
+                <c:pt idx="1535">
+                  <c:v>6517</c:v>
+                </c:pt>
+                <c:pt idx="1536">
+                  <c:v>6522</c:v>
+                </c:pt>
+                <c:pt idx="1537">
+                  <c:v>6521</c:v>
+                </c:pt>
+                <c:pt idx="1538">
+                  <c:v>6524</c:v>
+                </c:pt>
+                <c:pt idx="1539">
+                  <c:v>6547</c:v>
+                </c:pt>
+                <c:pt idx="1540">
+                  <c:v>6549</c:v>
+                </c:pt>
+                <c:pt idx="1541">
+                  <c:v>6553</c:v>
+                </c:pt>
+                <c:pt idx="1542">
+                  <c:v>6557</c:v>
+                </c:pt>
+                <c:pt idx="1543">
+                  <c:v>6562</c:v>
+                </c:pt>
+                <c:pt idx="1544">
+                  <c:v>6563</c:v>
+                </c:pt>
+                <c:pt idx="1545">
+                  <c:v>6567</c:v>
+                </c:pt>
+                <c:pt idx="1546">
+                  <c:v>6596</c:v>
+                </c:pt>
+                <c:pt idx="1547">
+                  <c:v>6597</c:v>
+                </c:pt>
+                <c:pt idx="1548">
+                  <c:v>6602</c:v>
+                </c:pt>
+                <c:pt idx="1549">
+                  <c:v>6588</c:v>
+                </c:pt>
+                <c:pt idx="1550">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="1551">
+                  <c:v>6621</c:v>
+                </c:pt>
+                <c:pt idx="1552">
+                  <c:v>6613</c:v>
+                </c:pt>
+                <c:pt idx="1553">
+                  <c:v>6608</c:v>
+                </c:pt>
+                <c:pt idx="1554">
+                  <c:v>6616</c:v>
+                </c:pt>
+                <c:pt idx="1555">
+                  <c:v>6632</c:v>
+                </c:pt>
+                <c:pt idx="1556">
+                  <c:v>6648</c:v>
+                </c:pt>
+                <c:pt idx="1557">
+                  <c:v>6683</c:v>
+                </c:pt>
+                <c:pt idx="1558">
+                  <c:v>6688</c:v>
+                </c:pt>
+                <c:pt idx="1559">
+                  <c:v>6693</c:v>
+                </c:pt>
+                <c:pt idx="1560">
+                  <c:v>6694</c:v>
+                </c:pt>
+                <c:pt idx="1561">
+                  <c:v>6697</c:v>
+                </c:pt>
+                <c:pt idx="1562">
+                  <c:v>6707</c:v>
+                </c:pt>
+                <c:pt idx="1563">
+                  <c:v>6705</c:v>
+                </c:pt>
+                <c:pt idx="1564">
+                  <c:v>6710</c:v>
+                </c:pt>
+                <c:pt idx="1565">
+                  <c:v>6722</c:v>
+                </c:pt>
+                <c:pt idx="1566">
+                  <c:v>6721</c:v>
+                </c:pt>
+                <c:pt idx="1567">
+                  <c:v>6717</c:v>
+                </c:pt>
+                <c:pt idx="1568">
+                  <c:v>6731</c:v>
+                </c:pt>
+                <c:pt idx="1569">
+                  <c:v>6725</c:v>
+                </c:pt>
+                <c:pt idx="1570">
+                  <c:v>6733</c:v>
+                </c:pt>
+                <c:pt idx="1571">
+                  <c:v>6749</c:v>
+                </c:pt>
+                <c:pt idx="1572">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="1573">
+                  <c:v>6751</c:v>
+                </c:pt>
+                <c:pt idx="1574">
+                  <c:v>6752</c:v>
+                </c:pt>
+                <c:pt idx="1575">
+                  <c:v>6769</c:v>
+                </c:pt>
+                <c:pt idx="1576">
+                  <c:v>6770</c:v>
+                </c:pt>
+                <c:pt idx="1577">
+                  <c:v>6777</c:v>
+                </c:pt>
+                <c:pt idx="1578">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="1579">
+                  <c:v>6825</c:v>
+                </c:pt>
+                <c:pt idx="1580">
+                  <c:v>6834</c:v>
+                </c:pt>
+                <c:pt idx="1581">
+                  <c:v>6838</c:v>
+                </c:pt>
+                <c:pt idx="1582">
+                  <c:v>6839</c:v>
+                </c:pt>
+                <c:pt idx="1583">
+                  <c:v>6854</c:v>
+                </c:pt>
+                <c:pt idx="1584">
+                  <c:v>6862</c:v>
+                </c:pt>
+                <c:pt idx="1585">
+                  <c:v>6863</c:v>
+                </c:pt>
+                <c:pt idx="1586">
+                  <c:v>6867</c:v>
+                </c:pt>
+                <c:pt idx="1587">
+                  <c:v>6858</c:v>
+                </c:pt>
+                <c:pt idx="1588">
+                  <c:v>6854</c:v>
+                </c:pt>
+                <c:pt idx="1589">
+                  <c:v>6887</c:v>
+                </c:pt>
+                <c:pt idx="1590">
+                  <c:v>6890</c:v>
+                </c:pt>
+                <c:pt idx="1591">
+                  <c:v>6891</c:v>
+                </c:pt>
+                <c:pt idx="1592">
+                  <c:v>6890</c:v>
+                </c:pt>
+                <c:pt idx="1593">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="1594">
+                  <c:v>6899</c:v>
+                </c:pt>
+                <c:pt idx="1595">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="1596">
+                  <c:v>6918</c:v>
+                </c:pt>
+                <c:pt idx="1597">
+                  <c:v>6922</c:v>
+                </c:pt>
+                <c:pt idx="1598">
+                  <c:v>6940</c:v>
+                </c:pt>
+                <c:pt idx="1599">
+                  <c:v>6941</c:v>
+                </c:pt>
+                <c:pt idx="1600">
+                  <c:v>6946</c:v>
+                </c:pt>
+                <c:pt idx="1601">
+                  <c:v>6948</c:v>
+                </c:pt>
+                <c:pt idx="1602">
+                  <c:v>6927</c:v>
+                </c:pt>
+                <c:pt idx="1603">
+                  <c:v>6928</c:v>
+                </c:pt>
+                <c:pt idx="1604">
+                  <c:v>6924</c:v>
+                </c:pt>
+                <c:pt idx="1605">
+                  <c:v>6907</c:v>
+                </c:pt>
+                <c:pt idx="1606">
+                  <c:v>6910</c:v>
+                </c:pt>
+                <c:pt idx="1607">
+                  <c:v>6917</c:v>
+                </c:pt>
+                <c:pt idx="1608">
+                  <c:v>6920</c:v>
+                </c:pt>
+                <c:pt idx="1609">
+                  <c:v>6931</c:v>
+                </c:pt>
+                <c:pt idx="1610">
+                  <c:v>6943</c:v>
+                </c:pt>
+                <c:pt idx="1611">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="1612">
+                  <c:v>6973</c:v>
+                </c:pt>
+                <c:pt idx="1613">
+                  <c:v>6974</c:v>
+                </c:pt>
+                <c:pt idx="1614">
+                  <c:v>6978</c:v>
+                </c:pt>
+                <c:pt idx="1615">
+                  <c:v>7001</c:v>
+                </c:pt>
+                <c:pt idx="1616">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="1617">
+                  <c:v>7001</c:v>
+                </c:pt>
+                <c:pt idx="1618">
+                  <c:v>7017</c:v>
+                </c:pt>
+                <c:pt idx="1619">
+                  <c:v>7018</c:v>
+                </c:pt>
+                <c:pt idx="1620">
+                  <c:v>7019</c:v>
+                </c:pt>
+                <c:pt idx="1621">
+                  <c:v>7020</c:v>
+                </c:pt>
+                <c:pt idx="1622">
+                  <c:v>7021</c:v>
+                </c:pt>
+                <c:pt idx="1623">
+                  <c:v>7023</c:v>
+                </c:pt>
+                <c:pt idx="1624">
+                  <c:v>7027</c:v>
+                </c:pt>
+                <c:pt idx="1625">
+                  <c:v>6998</c:v>
+                </c:pt>
+                <c:pt idx="1626">
+                  <c:v>6980</c:v>
+                </c:pt>
+                <c:pt idx="1627">
+                  <c:v>6979</c:v>
+                </c:pt>
+                <c:pt idx="1628">
+                  <c:v>6975</c:v>
+                </c:pt>
+                <c:pt idx="1629">
+                  <c:v>6974</c:v>
+                </c:pt>
+                <c:pt idx="1630">
+                  <c:v>6984</c:v>
+                </c:pt>
+                <c:pt idx="1631">
+                  <c:v>6992</c:v>
+                </c:pt>
+                <c:pt idx="1632">
+                  <c:v>6994</c:v>
+                </c:pt>
+                <c:pt idx="1633">
+                  <c:v>7003</c:v>
+                </c:pt>
+                <c:pt idx="1634">
+                  <c:v>7011</c:v>
+                </c:pt>
+                <c:pt idx="1635">
+                  <c:v>7012</c:v>
+                </c:pt>
+                <c:pt idx="1636">
+                  <c:v>7029</c:v>
+                </c:pt>
+                <c:pt idx="1637">
+                  <c:v>7041</c:v>
+                </c:pt>
+                <c:pt idx="1638">
+                  <c:v>7044</c:v>
+                </c:pt>
+                <c:pt idx="1639">
+                  <c:v>7063</c:v>
+                </c:pt>
+                <c:pt idx="1640">
+                  <c:v>7065</c:v>
+                </c:pt>
+                <c:pt idx="1641">
+                  <c:v>7067</c:v>
+                </c:pt>
+                <c:pt idx="1642">
+                  <c:v>7069</c:v>
+                </c:pt>
+                <c:pt idx="1643">
+                  <c:v>7076</c:v>
+                </c:pt>
+                <c:pt idx="1644">
+                  <c:v>7074</c:v>
+                </c:pt>
+                <c:pt idx="1645">
+                  <c:v>7076</c:v>
+                </c:pt>
+                <c:pt idx="1646">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="1647">
+                  <c:v>7083</c:v>
+                </c:pt>
+                <c:pt idx="1648">
+                  <c:v>7086</c:v>
+                </c:pt>
+                <c:pt idx="1649">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1650">
+                  <c:v>7137</c:v>
+                </c:pt>
+                <c:pt idx="1651">
+                  <c:v>7141</c:v>
+                </c:pt>
+                <c:pt idx="1652">
+                  <c:v>7142</c:v>
+                </c:pt>
+                <c:pt idx="1653">
+                  <c:v>7159</c:v>
+                </c:pt>
+                <c:pt idx="1654">
+                  <c:v>7160</c:v>
+                </c:pt>
+                <c:pt idx="1655">
+                  <c:v>7158</c:v>
+                </c:pt>
+                <c:pt idx="1656">
+                  <c:v>7157</c:v>
+                </c:pt>
+                <c:pt idx="1657">
+                  <c:v>7165</c:v>
+                </c:pt>
+                <c:pt idx="1658">
+                  <c:v>7167</c:v>
+                </c:pt>
+                <c:pt idx="1659">
+                  <c:v>7189</c:v>
+                </c:pt>
+                <c:pt idx="1660">
+                  <c:v>7193</c:v>
+                </c:pt>
+                <c:pt idx="1661">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="1662">
+                  <c:v>7192</c:v>
+                </c:pt>
+                <c:pt idx="1663">
+                  <c:v>7196</c:v>
+                </c:pt>
+                <c:pt idx="1664">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="1665">
+                  <c:v>7203</c:v>
+                </c:pt>
+                <c:pt idx="1666">
+                  <c:v>7209</c:v>
+                </c:pt>
+                <c:pt idx="1667">
+                  <c:v>7214</c:v>
+                </c:pt>
+                <c:pt idx="1668">
+                  <c:v>7219</c:v>
+                </c:pt>
+                <c:pt idx="1669">
+                  <c:v>7209</c:v>
+                </c:pt>
+                <c:pt idx="1670">
+                  <c:v>7169</c:v>
+                </c:pt>
+                <c:pt idx="1671">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="1672">
+                  <c:v>7169</c:v>
+                </c:pt>
+                <c:pt idx="1673">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="1674">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="1675">
+                  <c:v>7170</c:v>
+                </c:pt>
+                <c:pt idx="1676">
+                  <c:v>7165</c:v>
+                </c:pt>
+                <c:pt idx="1677">
+                  <c:v>7166</c:v>
+                </c:pt>
+                <c:pt idx="1678">
+                  <c:v>7176</c:v>
+                </c:pt>
+                <c:pt idx="1679">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="1680">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="1681">
+                  <c:v>7165</c:v>
+                </c:pt>
+                <c:pt idx="1682">
+                  <c:v>7169</c:v>
+                </c:pt>
+                <c:pt idx="1683">
+                  <c:v>7170</c:v>
+                </c:pt>
+                <c:pt idx="1684">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="1685">
+                  <c:v>7172</c:v>
+                </c:pt>
+                <c:pt idx="1686">
+                  <c:v>7176</c:v>
+                </c:pt>
+                <c:pt idx="1687">
+                  <c:v>7177</c:v>
+                </c:pt>
+                <c:pt idx="1688">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="1689">
+                  <c:v>7179</c:v>
+                </c:pt>
+                <c:pt idx="1690">
+                  <c:v>7174</c:v>
+                </c:pt>
+                <c:pt idx="1691">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="1692">
+                  <c:v>7182</c:v>
+                </c:pt>
+                <c:pt idx="1693">
+                  <c:v>7158</c:v>
+                </c:pt>
+                <c:pt idx="1694">
+                  <c:v>7172</c:v>
+                </c:pt>
+                <c:pt idx="1695">
+                  <c:v>7193</c:v>
+                </c:pt>
+                <c:pt idx="1696">
+                  <c:v>7199</c:v>
+                </c:pt>
+                <c:pt idx="1697">
+                  <c:v>7192</c:v>
+                </c:pt>
+                <c:pt idx="1698">
+                  <c:v>7191</c:v>
+                </c:pt>
+                <c:pt idx="1699">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="1700">
+                  <c:v>7192</c:v>
+                </c:pt>
+                <c:pt idx="1701">
+                  <c:v>7195</c:v>
+                </c:pt>
+                <c:pt idx="1702">
+                  <c:v>7199</c:v>
+                </c:pt>
+                <c:pt idx="1703">
+                  <c:v>7202</c:v>
+                </c:pt>
+                <c:pt idx="1704">
+                  <c:v>7201</c:v>
+                </c:pt>
+                <c:pt idx="1705">
+                  <c:v>7216</c:v>
+                </c:pt>
+                <c:pt idx="1706">
+                  <c:v>7213</c:v>
+                </c:pt>
+                <c:pt idx="1707">
+                  <c:v>7237</c:v>
+                </c:pt>
+                <c:pt idx="1708">
+                  <c:v>7256</c:v>
+                </c:pt>
+                <c:pt idx="1709">
+                  <c:v>7245</c:v>
+                </c:pt>
+                <c:pt idx="1710">
+                  <c:v>7246</c:v>
+                </c:pt>
+                <c:pt idx="1711">
+                  <c:v>7249</c:v>
+                </c:pt>
+                <c:pt idx="1712">
+                  <c:v>7263</c:v>
+                </c:pt>
+                <c:pt idx="1713">
+                  <c:v>7265</c:v>
+                </c:pt>
+                <c:pt idx="1714">
+                  <c:v>7262</c:v>
+                </c:pt>
+                <c:pt idx="1715">
+                  <c:v>7272</c:v>
+                </c:pt>
+                <c:pt idx="1716">
+                  <c:v>7273</c:v>
+                </c:pt>
+                <c:pt idx="1717">
+                  <c:v>7294</c:v>
+                </c:pt>
+                <c:pt idx="1718">
+                  <c:v>7298</c:v>
+                </c:pt>
+                <c:pt idx="1719">
+                  <c:v>7296</c:v>
+                </c:pt>
+                <c:pt idx="1720">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="1721">
+                  <c:v>7301</c:v>
+                </c:pt>
+                <c:pt idx="1722">
+                  <c:v>7313</c:v>
+                </c:pt>
+                <c:pt idx="1723">
+                  <c:v>7314</c:v>
+                </c:pt>
+                <c:pt idx="1724">
+                  <c:v>7316</c:v>
+                </c:pt>
+                <c:pt idx="1725">
+                  <c:v>7318</c:v>
+                </c:pt>
+                <c:pt idx="1726">
+                  <c:v>7326</c:v>
+                </c:pt>
+                <c:pt idx="1727">
+                  <c:v>7327</c:v>
+                </c:pt>
+                <c:pt idx="1728">
+                  <c:v>7328</c:v>
+                </c:pt>
+                <c:pt idx="1729">
+                  <c:v>7330</c:v>
+                </c:pt>
+                <c:pt idx="1730">
+                  <c:v>7349</c:v>
+                </c:pt>
+                <c:pt idx="1731">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="1732">
+                  <c:v>7366</c:v>
+                </c:pt>
+                <c:pt idx="1733">
+                  <c:v>7381</c:v>
+                </c:pt>
+                <c:pt idx="1734">
+                  <c:v>7382</c:v>
+                </c:pt>
+                <c:pt idx="1735">
+                  <c:v>7383</c:v>
+                </c:pt>
+                <c:pt idx="1736">
+                  <c:v>7390</c:v>
+                </c:pt>
+                <c:pt idx="1737">
+                  <c:v>7399</c:v>
+                </c:pt>
+                <c:pt idx="1738">
+                  <c:v>7382</c:v>
+                </c:pt>
+                <c:pt idx="1739">
+                  <c:v>7384</c:v>
+                </c:pt>
+                <c:pt idx="1740">
+                  <c:v>7380</c:v>
+                </c:pt>
+                <c:pt idx="1741">
+                  <c:v>7381</c:v>
+                </c:pt>
+                <c:pt idx="1742">
+                  <c:v>7385</c:v>
+                </c:pt>
+                <c:pt idx="1743">
+                  <c:v>7388</c:v>
+                </c:pt>
+                <c:pt idx="1744">
+                  <c:v>7402</c:v>
+                </c:pt>
+                <c:pt idx="1745">
+                  <c:v>7403</c:v>
+                </c:pt>
+                <c:pt idx="1746">
+                  <c:v>7404</c:v>
+                </c:pt>
+                <c:pt idx="1747">
+                  <c:v>7405</c:v>
+                </c:pt>
+                <c:pt idx="1748">
+                  <c:v>7409</c:v>
+                </c:pt>
+                <c:pt idx="1749">
+                  <c:v>7420</c:v>
+                </c:pt>
+                <c:pt idx="1750">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="1751">
+                  <c:v>7420</c:v>
+                </c:pt>
+                <c:pt idx="1752">
+                  <c:v>7421</c:v>
+                </c:pt>
+                <c:pt idx="1753">
+                  <c:v>7426</c:v>
+                </c:pt>
+                <c:pt idx="1754">
+                  <c:v>7429</c:v>
+                </c:pt>
+                <c:pt idx="1755">
+                  <c:v>7435</c:v>
+                </c:pt>
+                <c:pt idx="1756">
+                  <c:v>7425</c:v>
+                </c:pt>
+                <c:pt idx="1757">
+                  <c:v>7426</c:v>
+                </c:pt>
+                <c:pt idx="1758">
+                  <c:v>7429</c:v>
+                </c:pt>
+                <c:pt idx="1759">
+                  <c:v>7452</c:v>
+                </c:pt>
+                <c:pt idx="1760">
+                  <c:v>7455</c:v>
+                </c:pt>
+                <c:pt idx="1761">
+                  <c:v>7474</c:v>
+                </c:pt>
+                <c:pt idx="1762">
+                  <c:v>7469</c:v>
+                </c:pt>
+                <c:pt idx="1763">
+                  <c:v>7472</c:v>
+                </c:pt>
+                <c:pt idx="1764">
+                  <c:v>7473</c:v>
+                </c:pt>
+                <c:pt idx="1765">
+                  <c:v>7466</c:v>
+                </c:pt>
+                <c:pt idx="1766">
+                  <c:v>7461</c:v>
+                </c:pt>
+                <c:pt idx="1767">
+                  <c:v>7462</c:v>
+                </c:pt>
+                <c:pt idx="1768">
+                  <c:v>7470</c:v>
+                </c:pt>
+                <c:pt idx="1769">
+                  <c:v>7472</c:v>
+                </c:pt>
+                <c:pt idx="1770">
+                  <c:v>7474</c:v>
+                </c:pt>
+                <c:pt idx="1771">
+                  <c:v>7480</c:v>
+                </c:pt>
+                <c:pt idx="1772">
+                  <c:v>7474</c:v>
+                </c:pt>
+                <c:pt idx="1773">
+                  <c:v>7475</c:v>
+                </c:pt>
+                <c:pt idx="1774">
+                  <c:v>7473</c:v>
+                </c:pt>
+                <c:pt idx="1775">
+                  <c:v>7472</c:v>
+                </c:pt>
+                <c:pt idx="1776">
+                  <c:v>7475</c:v>
+                </c:pt>
+                <c:pt idx="1777">
+                  <c:v>7484</c:v>
+                </c:pt>
+                <c:pt idx="1778">
+                  <c:v>7472</c:v>
+                </c:pt>
+                <c:pt idx="1779">
+                  <c:v>7473</c:v>
+                </c:pt>
+                <c:pt idx="1780">
+                  <c:v>7489</c:v>
+                </c:pt>
+                <c:pt idx="1781">
+                  <c:v>7491</c:v>
+                </c:pt>
+                <c:pt idx="1782">
+                  <c:v>7514</c:v>
+                </c:pt>
+                <c:pt idx="1783">
+                  <c:v>7516</c:v>
+                </c:pt>
+                <c:pt idx="1784">
+                  <c:v>7509</c:v>
+                </c:pt>
+                <c:pt idx="1785">
+                  <c:v>7510</c:v>
+                </c:pt>
+                <c:pt idx="1786">
+                  <c:v>7513</c:v>
+                </c:pt>
+                <c:pt idx="1787">
+                  <c:v>7514</c:v>
+                </c:pt>
+                <c:pt idx="1788">
+                  <c:v>7539</c:v>
+                </c:pt>
+                <c:pt idx="1789">
+                  <c:v>7549</c:v>
+                </c:pt>
+                <c:pt idx="1790">
+                  <c:v>7571</c:v>
+                </c:pt>
+                <c:pt idx="1791">
+                  <c:v>7582</c:v>
+                </c:pt>
+                <c:pt idx="1792">
+                  <c:v>7570</c:v>
+                </c:pt>
+                <c:pt idx="1793">
+                  <c:v>7573</c:v>
+                </c:pt>
+                <c:pt idx="1794">
+                  <c:v>7574</c:v>
+                </c:pt>
+                <c:pt idx="1795">
+                  <c:v>7575</c:v>
+                </c:pt>
+                <c:pt idx="1796">
+                  <c:v>7576</c:v>
+                </c:pt>
+                <c:pt idx="1797">
+                  <c:v>7581</c:v>
+                </c:pt>
+                <c:pt idx="1798">
+                  <c:v>7589</c:v>
+                </c:pt>
+                <c:pt idx="1799">
+                  <c:v>7587</c:v>
+                </c:pt>
+                <c:pt idx="1800">
+                  <c:v>7590</c:v>
+                </c:pt>
+                <c:pt idx="1801">
+                  <c:v>7592</c:v>
+                </c:pt>
+                <c:pt idx="1802">
+                  <c:v>7598</c:v>
+                </c:pt>
+                <c:pt idx="1803">
+                  <c:v>7625</c:v>
+                </c:pt>
+                <c:pt idx="1804">
+                  <c:v>7627</c:v>
+                </c:pt>
+                <c:pt idx="1805">
+                  <c:v>7626</c:v>
+                </c:pt>
+                <c:pt idx="1806">
+                  <c:v>7627</c:v>
+                </c:pt>
+                <c:pt idx="1807">
+                  <c:v>7633</c:v>
+                </c:pt>
+                <c:pt idx="1808">
+                  <c:v>7638</c:v>
+                </c:pt>
+                <c:pt idx="1809">
+                  <c:v>7640</c:v>
+                </c:pt>
+                <c:pt idx="1810">
+                  <c:v>7641</c:v>
+                </c:pt>
+                <c:pt idx="1811">
+                  <c:v>7645</c:v>
+                </c:pt>
+                <c:pt idx="1812">
+                  <c:v>7657</c:v>
+                </c:pt>
+                <c:pt idx="1813">
+                  <c:v>7669</c:v>
+                </c:pt>
+                <c:pt idx="1814">
+                  <c:v>7670</c:v>
+                </c:pt>
+                <c:pt idx="1815">
+                  <c:v>7654</c:v>
+                </c:pt>
+                <c:pt idx="1816">
+                  <c:v>7681</c:v>
+                </c:pt>
+                <c:pt idx="1817">
+                  <c:v>7682</c:v>
+                </c:pt>
+                <c:pt idx="1818">
+                  <c:v>7679</c:v>
+                </c:pt>
+                <c:pt idx="1819">
+                  <c:v>7689</c:v>
+                </c:pt>
+                <c:pt idx="1820">
+                  <c:v>7690</c:v>
+                </c:pt>
+                <c:pt idx="1821">
+                  <c:v>7696</c:v>
+                </c:pt>
+                <c:pt idx="1822">
+                  <c:v>7709</c:v>
+                </c:pt>
+                <c:pt idx="1823">
+                  <c:v>7718</c:v>
+                </c:pt>
+                <c:pt idx="1824">
+                  <c:v>7723</c:v>
+                </c:pt>
+                <c:pt idx="1825">
+                  <c:v>7721</c:v>
+                </c:pt>
+                <c:pt idx="1826">
+                  <c:v>7722</c:v>
+                </c:pt>
+                <c:pt idx="1827">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="1828">
+                  <c:v>7751</c:v>
+                </c:pt>
+                <c:pt idx="1829">
+                  <c:v>7764</c:v>
+                </c:pt>
+                <c:pt idx="1830">
+                  <c:v>7756</c:v>
+                </c:pt>
+                <c:pt idx="1831">
+                  <c:v>7747</c:v>
+                </c:pt>
+                <c:pt idx="1832">
+                  <c:v>7748</c:v>
+                </c:pt>
+                <c:pt idx="1833">
+                  <c:v>7757</c:v>
+                </c:pt>
+                <c:pt idx="1834">
+                  <c:v>7766</c:v>
+                </c:pt>
+                <c:pt idx="1835">
+                  <c:v>7779</c:v>
+                </c:pt>
+                <c:pt idx="1836">
+                  <c:v>7784</c:v>
+                </c:pt>
+                <c:pt idx="1837">
+                  <c:v>7785</c:v>
+                </c:pt>
+                <c:pt idx="1838">
+                  <c:v>7804</c:v>
+                </c:pt>
+                <c:pt idx="1839">
+                  <c:v>7805</c:v>
+                </c:pt>
+                <c:pt idx="1840">
+                  <c:v>7808</c:v>
+                </c:pt>
+                <c:pt idx="1841">
+                  <c:v>7809</c:v>
+                </c:pt>
+                <c:pt idx="1842">
+                  <c:v>7808</c:v>
+                </c:pt>
+                <c:pt idx="1843">
+                  <c:v>7834</c:v>
+                </c:pt>
+                <c:pt idx="1844">
+                  <c:v>7836</c:v>
+                </c:pt>
+                <c:pt idx="1845">
+                  <c:v>7837</c:v>
+                </c:pt>
+                <c:pt idx="1846">
+                  <c:v>7853</c:v>
+                </c:pt>
+                <c:pt idx="1847">
+                  <c:v>7854</c:v>
+                </c:pt>
+                <c:pt idx="1848">
+                  <c:v>7855</c:v>
+                </c:pt>
+                <c:pt idx="1849">
+                  <c:v>7866</c:v>
+                </c:pt>
+                <c:pt idx="1850">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="1851">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="1852">
+                  <c:v>7930</c:v>
+                </c:pt>
+                <c:pt idx="1853">
+                  <c:v>7931</c:v>
+                </c:pt>
+                <c:pt idx="1854">
+                  <c:v>7928</c:v>
+                </c:pt>
+                <c:pt idx="1855">
+                  <c:v>7931</c:v>
+                </c:pt>
+                <c:pt idx="1856">
+                  <c:v>7916</c:v>
+                </c:pt>
+                <c:pt idx="1857">
+                  <c:v>7917</c:v>
+                </c:pt>
+                <c:pt idx="1858">
+                  <c:v>7947</c:v>
+                </c:pt>
+                <c:pt idx="1859">
+                  <c:v>7948</c:v>
+                </c:pt>
+                <c:pt idx="1860">
+                  <c:v>7952</c:v>
+                </c:pt>
+                <c:pt idx="1861">
+                  <c:v>7948</c:v>
+                </c:pt>
+                <c:pt idx="1862">
+                  <c:v>7985</c:v>
+                </c:pt>
+                <c:pt idx="1863">
+                  <c:v>7984</c:v>
+                </c:pt>
+                <c:pt idx="1864">
+                  <c:v>7988</c:v>
+                </c:pt>
+                <c:pt idx="1865">
+                  <c:v>7998</c:v>
+                </c:pt>
+                <c:pt idx="1866">
+                  <c:v>8004</c:v>
+                </c:pt>
+                <c:pt idx="1867">
+                  <c:v>8017</c:v>
+                </c:pt>
+                <c:pt idx="1868">
+                  <c:v>8016</c:v>
+                </c:pt>
+                <c:pt idx="1869">
+                  <c:v>8033</c:v>
+                </c:pt>
+                <c:pt idx="1870">
+                  <c:v>8035</c:v>
+                </c:pt>
+                <c:pt idx="1871">
+                  <c:v>8039</c:v>
+                </c:pt>
+                <c:pt idx="1872">
+                  <c:v>8053</c:v>
+                </c:pt>
+                <c:pt idx="1873">
+                  <c:v>8062</c:v>
+                </c:pt>
+                <c:pt idx="1874">
+                  <c:v>8063</c:v>
+                </c:pt>
+                <c:pt idx="1875">
+                  <c:v>8064</c:v>
+                </c:pt>
+                <c:pt idx="1876">
+                  <c:v>8068</c:v>
+                </c:pt>
+                <c:pt idx="1877">
+                  <c:v>8085</c:v>
+                </c:pt>
+                <c:pt idx="1878">
+                  <c:v>8104</c:v>
+                </c:pt>
+                <c:pt idx="1879">
+                  <c:v>8103</c:v>
+                </c:pt>
+                <c:pt idx="1880">
+                  <c:v>8104</c:v>
+                </c:pt>
+                <c:pt idx="1881">
+                  <c:v>8107</c:v>
+                </c:pt>
+                <c:pt idx="1882">
+                  <c:v>8113</c:v>
+                </c:pt>
+                <c:pt idx="1883">
+                  <c:v>8116</c:v>
+                </c:pt>
+                <c:pt idx="1884">
+                  <c:v>8127</c:v>
+                </c:pt>
+                <c:pt idx="1885">
+                  <c:v>8129</c:v>
+                </c:pt>
+                <c:pt idx="1886">
+                  <c:v>8119</c:v>
+                </c:pt>
+                <c:pt idx="1887">
+                  <c:v>8117</c:v>
+                </c:pt>
+                <c:pt idx="1888">
+                  <c:v>8139</c:v>
+                </c:pt>
+                <c:pt idx="1889">
+                  <c:v>8140</c:v>
+                </c:pt>
+                <c:pt idx="1890">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="1891">
+                  <c:v>8151</c:v>
+                </c:pt>
+                <c:pt idx="1892">
+                  <c:v>8153</c:v>
+                </c:pt>
+                <c:pt idx="1893">
+                  <c:v>8168</c:v>
+                </c:pt>
+                <c:pt idx="1894">
+                  <c:v>8169</c:v>
+                </c:pt>
+                <c:pt idx="1895">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="1896">
+                  <c:v>8161</c:v>
+                </c:pt>
+                <c:pt idx="1897">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="1898">
+                  <c:v>8165</c:v>
+                </c:pt>
+                <c:pt idx="1899">
+                  <c:v>8168</c:v>
+                </c:pt>
+                <c:pt idx="1900">
+                  <c:v>8176</c:v>
+                </c:pt>
+                <c:pt idx="1901">
+                  <c:v>8180</c:v>
+                </c:pt>
+                <c:pt idx="1902">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="1903">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="1904">
+                  <c:v>8196</c:v>
+                </c:pt>
+                <c:pt idx="1905">
+                  <c:v>8197</c:v>
+                </c:pt>
+                <c:pt idx="1906">
+                  <c:v>8209</c:v>
+                </c:pt>
+                <c:pt idx="1907">
+                  <c:v>8211</c:v>
+                </c:pt>
+                <c:pt idx="1908">
+                  <c:v>8212</c:v>
+                </c:pt>
+                <c:pt idx="1909">
+                  <c:v>8219</c:v>
+                </c:pt>
+                <c:pt idx="1910">
+                  <c:v>8222</c:v>
+                </c:pt>
+                <c:pt idx="1911">
+                  <c:v>8187</c:v>
+                </c:pt>
+                <c:pt idx="1912">
+                  <c:v>8191</c:v>
+                </c:pt>
+                <c:pt idx="1913">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1914">
+                  <c:v>8207</c:v>
+                </c:pt>
+                <c:pt idx="1915">
+                  <c:v>8208</c:v>
+                </c:pt>
+                <c:pt idx="1916">
+                  <c:v>8211</c:v>
+                </c:pt>
+                <c:pt idx="1917">
+                  <c:v>8213</c:v>
+                </c:pt>
+                <c:pt idx="1918">
+                  <c:v>8196</c:v>
+                </c:pt>
+                <c:pt idx="1919">
+                  <c:v>8207</c:v>
+                </c:pt>
+                <c:pt idx="1920">
+                  <c:v>8215</c:v>
+                </c:pt>
+                <c:pt idx="1921">
+                  <c:v>8214</c:v>
+                </c:pt>
+                <c:pt idx="1922">
+                  <c:v>8217</c:v>
+                </c:pt>
+                <c:pt idx="1923">
+                  <c:v>8207</c:v>
+                </c:pt>
+                <c:pt idx="1924">
+                  <c:v>8208</c:v>
+                </c:pt>
+                <c:pt idx="1925">
+                  <c:v>8209</c:v>
+                </c:pt>
+                <c:pt idx="1926">
+                  <c:v>8228</c:v>
+                </c:pt>
+                <c:pt idx="1927">
+                  <c:v>8233</c:v>
+                </c:pt>
+                <c:pt idx="1928">
+                  <c:v>8241</c:v>
+                </c:pt>
+                <c:pt idx="1929">
+                  <c:v>8245</c:v>
+                </c:pt>
+                <c:pt idx="1930">
+                  <c:v>8257</c:v>
+                </c:pt>
+                <c:pt idx="1931">
+                  <c:v>8258</c:v>
+                </c:pt>
+                <c:pt idx="1932">
+                  <c:v>8257</c:v>
+                </c:pt>
+                <c:pt idx="1933">
+                  <c:v>8258</c:v>
+                </c:pt>
+                <c:pt idx="1934">
+                  <c:v>8259</c:v>
+                </c:pt>
+                <c:pt idx="1935">
+                  <c:v>8263</c:v>
+                </c:pt>
+                <c:pt idx="1936">
+                  <c:v>8269</c:v>
+                </c:pt>
+                <c:pt idx="1937">
+                  <c:v>8273</c:v>
+                </c:pt>
+                <c:pt idx="1938">
+                  <c:v>8276</c:v>
+                </c:pt>
+                <c:pt idx="1939">
+                  <c:v>8274</c:v>
+                </c:pt>
+                <c:pt idx="1940">
+                  <c:v>8269</c:v>
+                </c:pt>
+                <c:pt idx="1941">
+                  <c:v>8276</c:v>
+                </c:pt>
+                <c:pt idx="1942">
+                  <c:v>8279</c:v>
+                </c:pt>
+                <c:pt idx="1943">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="1944">
+                  <c:v>8267</c:v>
+                </c:pt>
+                <c:pt idx="1945">
+                  <c:v>8263</c:v>
+                </c:pt>
+                <c:pt idx="1946">
+                  <c:v>8266</c:v>
+                </c:pt>
+                <c:pt idx="1947">
+                  <c:v>8264</c:v>
+                </c:pt>
+                <c:pt idx="1948">
+                  <c:v>8266</c:v>
+                </c:pt>
+                <c:pt idx="1949">
+                  <c:v>8267</c:v>
+                </c:pt>
+                <c:pt idx="1950">
+                  <c:v>8270</c:v>
+                </c:pt>
+                <c:pt idx="1951">
+                  <c:v>8272</c:v>
+                </c:pt>
+                <c:pt idx="1952">
+                  <c:v>8271</c:v>
+                </c:pt>
+                <c:pt idx="1953">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="1954">
+                  <c:v>8286</c:v>
+                </c:pt>
+                <c:pt idx="1955">
+                  <c:v>8296</c:v>
+                </c:pt>
+                <c:pt idx="1956">
+                  <c:v>8312</c:v>
+                </c:pt>
+                <c:pt idx="1957">
+                  <c:v>8314</c:v>
+                </c:pt>
+                <c:pt idx="1958">
+                  <c:v>8320</c:v>
+                </c:pt>
+                <c:pt idx="1959">
+                  <c:v>8322</c:v>
+                </c:pt>
+                <c:pt idx="1960">
+                  <c:v>8335</c:v>
+                </c:pt>
+                <c:pt idx="1961">
+                  <c:v>8339</c:v>
+                </c:pt>
+                <c:pt idx="1962">
+                  <c:v>8340</c:v>
+                </c:pt>
+                <c:pt idx="1963">
+                  <c:v>8338</c:v>
+                </c:pt>
+                <c:pt idx="1964">
+                  <c:v>8367</c:v>
+                </c:pt>
+                <c:pt idx="1965">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="1966">
+                  <c:v>8415</c:v>
+                </c:pt>
+                <c:pt idx="1967">
+                  <c:v>8416</c:v>
+                </c:pt>
+                <c:pt idx="1968">
+                  <c:v>8419</c:v>
+                </c:pt>
+                <c:pt idx="1969">
+                  <c:v>8420</c:v>
+                </c:pt>
+                <c:pt idx="1970">
+                  <c:v>8426</c:v>
+                </c:pt>
+                <c:pt idx="1971">
+                  <c:v>8427</c:v>
+                </c:pt>
+                <c:pt idx="1972">
+                  <c:v>8425</c:v>
+                </c:pt>
+                <c:pt idx="1973">
+                  <c:v>8440</c:v>
+                </c:pt>
+                <c:pt idx="1974">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="1975">
+                  <c:v>8447</c:v>
+                </c:pt>
+                <c:pt idx="1976">
+                  <c:v>8446</c:v>
+                </c:pt>
+                <c:pt idx="1977">
+                  <c:v>8453</c:v>
+                </c:pt>
+                <c:pt idx="1978">
+                  <c:v>8486</c:v>
+                </c:pt>
+                <c:pt idx="1979">
+                  <c:v>8492</c:v>
+                </c:pt>
+                <c:pt idx="1980">
+                  <c:v>8488</c:v>
+                </c:pt>
+                <c:pt idx="1981">
+                  <c:v>8503</c:v>
+                </c:pt>
+                <c:pt idx="1982">
+                  <c:v>8512</c:v>
+                </c:pt>
+                <c:pt idx="1983">
+                  <c:v>8525</c:v>
+                </c:pt>
+                <c:pt idx="1984">
+                  <c:v>8523</c:v>
+                </c:pt>
+                <c:pt idx="1985">
+                  <c:v>8508</c:v>
+                </c:pt>
+                <c:pt idx="1986">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="1987">
+                  <c:v>8522</c:v>
+                </c:pt>
+                <c:pt idx="1988">
+                  <c:v>8547</c:v>
+                </c:pt>
+                <c:pt idx="1989">
+                  <c:v>8552</c:v>
+                </c:pt>
+                <c:pt idx="1990">
+                  <c:v>8542</c:v>
+                </c:pt>
+                <c:pt idx="1991">
+                  <c:v>8541</c:v>
+                </c:pt>
+                <c:pt idx="1992">
+                  <c:v>8561</c:v>
+                </c:pt>
+                <c:pt idx="1993">
+                  <c:v>8562</c:v>
+                </c:pt>
+                <c:pt idx="1994">
+                  <c:v>8583</c:v>
+                </c:pt>
+                <c:pt idx="1995">
+                  <c:v>8584</c:v>
+                </c:pt>
+                <c:pt idx="1996">
+                  <c:v>8585</c:v>
+                </c:pt>
+                <c:pt idx="1997">
+                  <c:v>8586</c:v>
+                </c:pt>
+                <c:pt idx="1998">
+                  <c:v>8594</c:v>
+                </c:pt>
+                <c:pt idx="1999">
+                  <c:v>8593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1477-4F82-A5E6-D390D6C7CCA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1348876864"/>
+        <c:axId val="1348877280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1348876864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1348877280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1348877280"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1348876864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D352CEA8-2F7A-488C-AB5E-14A01035DDB5}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308887" cy="6075189"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60641ABC-E310-420C-9372-128813709311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,8 +7426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DD6959-8FFD-43A2-BFE6-B87531A902FA}">
   <dimension ref="A1:D2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26520,7 +33446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA4A51E-21D5-4648-9214-D2E52108E5E3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -26563,7 +33491,7 @@
         <v>208</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B67" si="0">IF(A4&gt;A3,1,0)</f>
+        <f t="shared" ref="B4:B11" si="0">IF(A4&gt;A3,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -26589,7 +33517,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C69" si="1">IF(SUM(A4:A6)&gt;SUM(A3:A5),1,0)</f>
+        <f t="shared" ref="C6:C11" si="1">IF(SUM(A4:A6)&gt;SUM(A3:A5),1,0)</f>
         <v>0</v>
       </c>
     </row>
